--- a/Documents/WBS.xlsx
+++ b/Documents/WBS.xlsx
@@ -1,30 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OHGYEONGSU\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\god18\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{58818544-9249-46F6-A87B-65B2DA5A04D9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A11EFB55-BD61-4ED3-9098-8238242E39B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5568" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView visibility="hidden" xWindow="360" yWindow="372" windowWidth="18852" windowHeight="8652" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
-    <workbookView visibility="hidden" xWindow="600" yWindow="648" windowWidth="18612" windowHeight="8388" xr2:uid="{00000000-000D-0000-FFFF-FFFF02000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="hidden" xWindow="360" yWindow="375" windowWidth="18855" windowHeight="8655" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
+    <workbookView visibility="hidden" xWindow="600" yWindow="645" windowWidth="18615" windowHeight="8385" xr2:uid="{00000000-000D-0000-FFFF-FFFF02000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="2" r:id="rId1"/>
     <sheet name="분석" sheetId="3" r:id="rId2"/>
     <sheet name="설계" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>WBS</t>
   </si>
@@ -64,95 +71,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>DB 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아키텍처 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태스크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색어 기반 원형 레이블링 , 그래프 , 차트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행률(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AWS 기본셋팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rest 서버 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분석 제품 선정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>위험 분석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DB 설계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아키텍처 설계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클래스 설계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요구사항 분석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>태스크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>크롤링</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>헝태소 분석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사전 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>감성분석기 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>웹 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색어 기반 원형 레이블링 , 그래프 , 차트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기존 감성 사전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신조어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품에 따른 감성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쓰레기 댓글 처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이모티콘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고유어 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작날짜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종료날짜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행률(%)</t>
+    <t>감성분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감성사전 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형태소 분석기로 명사 추출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더미 데이터 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.6.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 구현 (Layout , Responsive Planning)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request &amp; Response Data Formatting</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -467,27 +490,18 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -497,6 +511,24 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -505,6 +537,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -848,755 +889,874 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:O11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
     <sheetView tabSelected="1" workbookViewId="1"/>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="2"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.19921875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.69921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.09765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.59765625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.69921875" style="5"/>
+    <col min="1" max="1" width="6.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.75" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="26"/>
-    </row>
-    <row r="2" spans="1:15" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="33"/>
+    </row>
+    <row r="2" spans="1:15" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="17">
+        <v>43478</v>
+      </c>
+      <c r="D2" s="17">
+        <v>43492</v>
+      </c>
       <c r="E2" s="20">
-        <f>AVERAGE(E3:E7)</f>
-        <v>0.33999999999999997</v>
-      </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="29"/>
-    </row>
-    <row r="3" spans="1:15" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+        <f>AVERAGE(E3:E8)</f>
+        <v>0.49333333333333335</v>
+      </c>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="36"/>
+    </row>
+    <row r="3" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+        <v>23</v>
+      </c>
+      <c r="C3" s="18">
+        <v>43478</v>
+      </c>
+      <c r="D3" s="18">
+        <v>43479</v>
+      </c>
       <c r="E3" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-    </row>
-    <row r="4" spans="1:15" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F3" s="40"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+    </row>
+    <row r="4" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>1.2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+        <v>24</v>
+      </c>
+      <c r="C4" s="18">
+        <v>43479</v>
+      </c>
+      <c r="D4" s="18">
+        <v>43485</v>
+      </c>
       <c r="E4" s="21">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F4" s="23"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-    </row>
-    <row r="5" spans="1:15" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:15" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>1.3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+        <v>14</v>
+      </c>
+      <c r="C5" s="18">
+        <v>43479</v>
+      </c>
+      <c r="D5" s="18">
+        <v>43485</v>
+      </c>
       <c r="E5" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-    </row>
-    <row r="6" spans="1:15" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="40"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+    </row>
+    <row r="6" spans="1:15" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>1.4</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="18">
+        <v>43485</v>
+      </c>
+      <c r="D6" s="18">
+        <v>43492</v>
+      </c>
+      <c r="E6" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="F6" s="40"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+    </row>
+    <row r="7" spans="1:15" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-    </row>
-    <row r="7" spans="1:15" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="B7" s="14" t="s">
+      <c r="C7" s="18">
+        <v>43485</v>
+      </c>
+      <c r="D7" s="18">
+        <v>43492</v>
+      </c>
+      <c r="E7" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="F7" s="40"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+    </row>
+    <row r="8" spans="1:15" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
+        <v>1.6</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="22">
+      <c r="C8" s="19">
+        <v>43492</v>
+      </c>
+      <c r="D8" s="19">
+        <v>43492</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="30"/>
+    </row>
+    <row r="9" spans="1:15" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="33"/>
-    </row>
-    <row r="8" spans="1:15" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="20">
-        <f>AVERAGE(E9:E12)</f>
-        <v>0.155</v>
-      </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="29"/>
-    </row>
-    <row r="9" spans="1:15" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="C9" s="17">
+        <v>43487</v>
+      </c>
+      <c r="D9" s="17">
+        <v>43494</v>
+      </c>
+      <c r="E9" s="20">
+        <f>AVERAGE(E10:E13)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="36"/>
+    </row>
+    <row r="10" spans="1:15" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
         <v>2.1</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="18">
+        <v>43487</v>
+      </c>
+      <c r="D10" s="18">
+        <v>43488</v>
+      </c>
+      <c r="E10" s="21">
+        <v>0</v>
+      </c>
+      <c r="F10" s="40"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+    </row>
+    <row r="11" spans="1:15" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="21">
-        <v>0.02</v>
-      </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-    </row>
-    <row r="10" spans="1:15" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B10" s="12" t="s">
+      <c r="C11" s="18">
+        <v>43489</v>
+      </c>
+      <c r="D11" s="18">
+        <v>43492</v>
+      </c>
+      <c r="E11" s="21">
+        <v>0</v>
+      </c>
+      <c r="F11" s="40"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+    </row>
+    <row r="12" spans="1:15" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="21">
-        <v>0.05</v>
-      </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-    </row>
-    <row r="11" spans="1:15" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B11" s="12" t="s">
+      <c r="C12" s="18">
+        <v>43489</v>
+      </c>
+      <c r="D12" s="18">
+        <v>43492</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0</v>
+      </c>
+      <c r="F12" s="40"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+    </row>
+    <row r="13" spans="1:15" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
+        <v>2.4</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="19">
+        <v>43493</v>
+      </c>
+      <c r="D13" s="19">
+        <v>43494</v>
+      </c>
+      <c r="E13" s="22">
+        <v>0</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="30"/>
+    </row>
+    <row r="14" spans="1:15" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="15">
+        <v>3</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="21">
-        <v>0.05</v>
-      </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-    </row>
-    <row r="12" spans="1:15" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
-        <v>2.4</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="33"/>
-    </row>
-    <row r="13" spans="1:15" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
-        <v>3</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="20">
-        <f>AVERAGE(E14:E27)</f>
-        <v>0.9</v>
-      </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="36"/>
-    </row>
-    <row r="14" spans="1:15" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="C14" s="17">
+        <v>43495</v>
+      </c>
+      <c r="D14" s="17">
+        <v>43524</v>
+      </c>
+      <c r="E14" s="20">
+        <f>AVERAGE(E15:E16,E18:E21,E23,E25:E27)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="39"/>
+    </row>
+    <row r="15" spans="1:15" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
         <v>3.1</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="21">
-        <v>1</v>
-      </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-    </row>
-    <row r="15" spans="1:15" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
       <c r="B15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
+        <v>20</v>
+      </c>
+      <c r="C15" s="18">
+        <v>43495</v>
+      </c>
+      <c r="D15" s="18">
+        <v>43497</v>
+      </c>
       <c r="E15" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-    </row>
-    <row r="16" spans="1:15" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F15" s="40"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+    </row>
+    <row r="16" spans="1:15" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>3.2</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+        <v>25</v>
+      </c>
+      <c r="C16" s="18">
+        <v>43498</v>
+      </c>
+      <c r="D16" s="18">
+        <v>43500</v>
+      </c>
       <c r="E16" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="23"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-    </row>
-    <row r="17" spans="1:15" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+    </row>
+    <row r="17" spans="1:15" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="11">
+        <v>3.3</v>
+      </c>
       <c r="B17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="18">
+        <v>43498</v>
+      </c>
+      <c r="D17" s="18">
+        <v>43513</v>
+      </c>
+      <c r="E17" s="21">
+        <v>0</v>
+      </c>
+      <c r="F17" s="40"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+    </row>
+    <row r="18" spans="1:15" s="27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="21">
-        <v>1</v>
-      </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-    </row>
-    <row r="18" spans="1:15" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
+      <c r="C18" s="18">
+        <v>43501</v>
+      </c>
+      <c r="D18" s="18">
+        <v>43503</v>
+      </c>
       <c r="E18" s="21">
-        <v>1</v>
-      </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-    </row>
-    <row r="19" spans="1:15" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+    </row>
+    <row r="19" spans="1:15" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="B19" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
+      <c r="C19" s="18">
+        <v>43504</v>
+      </c>
+      <c r="D19" s="18">
+        <v>43505</v>
+      </c>
       <c r="E19" s="21">
-        <v>1</v>
-      </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-    </row>
-    <row r="20" spans="1:15" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
-        <v>3.3</v>
+        <v>0</v>
+      </c>
+      <c r="F19" s="40"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+    </row>
+    <row r="20" spans="1:15" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
+        <v>27</v>
+      </c>
+      <c r="C20" s="18">
+        <v>43506</v>
+      </c>
+      <c r="D20" s="18">
+        <v>43513</v>
+      </c>
       <c r="E20" s="21">
-        <v>1</v>
-      </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-    </row>
-    <row r="21" spans="1:15" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="40"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+    </row>
+    <row r="21" spans="1:15" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="11">
+        <v>3.4</v>
+      </c>
       <c r="B21" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
+        <v>21</v>
+      </c>
+      <c r="C21" s="18">
+        <v>43498</v>
+      </c>
+      <c r="D21" s="18">
+        <v>43516</v>
+      </c>
       <c r="E21" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="23"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-    </row>
-    <row r="22" spans="1:15" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+    </row>
+    <row r="22" spans="1:15" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="11">
+        <v>3.5</v>
+      </c>
       <c r="B22" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
+        <v>35</v>
+      </c>
+      <c r="C22" s="18">
+        <v>43498</v>
+      </c>
+      <c r="D22" s="18">
+        <v>43503</v>
+      </c>
       <c r="E22" s="21">
-        <v>1</v>
-      </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-    </row>
-    <row r="23" spans="1:15" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="40"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+    </row>
+    <row r="23" spans="1:15" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B23" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
+        <v>16</v>
+      </c>
+      <c r="C23" s="18">
+        <v>43503</v>
+      </c>
+      <c r="D23" s="18">
+        <v>43516</v>
+      </c>
       <c r="E23" s="21">
-        <v>1</v>
-      </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-    </row>
-    <row r="24" spans="1:15" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F23" s="40"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+    </row>
+    <row r="24" spans="1:15" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
+        <v>22</v>
+      </c>
+      <c r="C24" s="18">
+        <v>43503</v>
+      </c>
+      <c r="D24" s="18">
+        <v>43516</v>
+      </c>
       <c r="E24" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="23"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-    </row>
-    <row r="25" spans="1:15" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
-        <v>3.5</v>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+    </row>
+    <row r="25" spans="1:15" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
+        <v>36</v>
+      </c>
+      <c r="C25" s="18">
+        <v>43503</v>
+      </c>
+      <c r="D25" s="18">
+        <v>43516</v>
+      </c>
       <c r="E25" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="23"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-    </row>
-    <row r="26" spans="1:15" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+    </row>
+    <row r="26" spans="1:15" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
-      <c r="B26" s="12" t="s">
-        <v>22</v>
-      </c>
+      <c r="B26" s="12"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
-      <c r="E26" s="21">
-        <v>1</v>
-      </c>
-      <c r="F26" s="23"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-    </row>
-    <row r="27" spans="1:15" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+    </row>
+    <row r="27" spans="1:15" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="13">
+        <v>3.7</v>
+      </c>
       <c r="B27" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
+      <c r="C27" s="19">
+        <v>43518</v>
+      </c>
+      <c r="D27" s="19">
+        <v>43524</v>
+      </c>
       <c r="E27" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="F27" s="31"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="33"/>
-    </row>
-    <row r="28" spans="1:15" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F27" s="28"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="30"/>
+    </row>
+    <row r="28" spans="1:15" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="16">
         <v>4</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
+      <c r="C28" s="17">
+        <v>43525</v>
+      </c>
+      <c r="D28" s="17">
+        <v>43556</v>
+      </c>
       <c r="E28" s="20">
         <f>AVERAGE(E29:E31)</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="F28" s="34"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="36"/>
-    </row>
-    <row r="29" spans="1:15" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="37"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="39"/>
+    </row>
+    <row r="29" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="11">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="B29" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
+      <c r="C29" s="18">
+        <v>43525</v>
+      </c>
+      <c r="D29" s="18">
+        <v>43544</v>
+      </c>
       <c r="E29" s="21">
-        <v>1</v>
-      </c>
-      <c r="F29" s="23"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-    </row>
-    <row r="30" spans="1:15" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="40"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+    </row>
+    <row r="30" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="11">
+        <v>4.2</v>
+      </c>
       <c r="B30" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
+      <c r="C30" s="18">
+        <v>43525</v>
+      </c>
+      <c r="D30" s="18">
+        <v>43544</v>
+      </c>
       <c r="E30" s="21">
-        <v>1</v>
-      </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-    </row>
-    <row r="31" spans="1:15" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="40"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+    </row>
+    <row r="31" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="13">
+        <v>4.3</v>
+      </c>
       <c r="B31" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
+      <c r="C31" s="19">
+        <v>43544</v>
+      </c>
+      <c r="D31" s="19">
+        <v>43556</v>
+      </c>
       <c r="E31" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="F31" s="31"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="33"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="28"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="F8:O8"/>
-    <mergeCell ref="F24:O24"/>
-    <mergeCell ref="F25:O25"/>
-    <mergeCell ref="F26:O26"/>
-    <mergeCell ref="F29:O29"/>
-    <mergeCell ref="F14:O14"/>
-    <mergeCell ref="F15:O15"/>
-    <mergeCell ref="F16:O16"/>
-    <mergeCell ref="F17:O17"/>
-    <mergeCell ref="F18:O18"/>
-    <mergeCell ref="F20:O20"/>
-    <mergeCell ref="F21:O21"/>
+  <mergeCells count="25">
     <mergeCell ref="F22:O22"/>
     <mergeCell ref="F23:O23"/>
+    <mergeCell ref="F29:O29"/>
+    <mergeCell ref="F15:O15"/>
+    <mergeCell ref="F17:O17"/>
+    <mergeCell ref="F19:O19"/>
+    <mergeCell ref="F20:O20"/>
     <mergeCell ref="F28:O28"/>
+    <mergeCell ref="F26:O26"/>
     <mergeCell ref="F31:O31"/>
-    <mergeCell ref="F7:O7"/>
+    <mergeCell ref="F8:O8"/>
     <mergeCell ref="F1:O1"/>
     <mergeCell ref="F2:O2"/>
-    <mergeCell ref="F12:O12"/>
     <mergeCell ref="F13:O13"/>
+    <mergeCell ref="F14:O14"/>
     <mergeCell ref="F27:O27"/>
     <mergeCell ref="F3:O3"/>
-    <mergeCell ref="F4:O4"/>
     <mergeCell ref="F5:O5"/>
     <mergeCell ref="F6:O6"/>
-    <mergeCell ref="F9:O9"/>
+    <mergeCell ref="F7:O7"/>
     <mergeCell ref="F10:O10"/>
     <mergeCell ref="F11:O11"/>
+    <mergeCell ref="F12:O12"/>
     <mergeCell ref="F30:O30"/>
-    <mergeCell ref="F19:O19"/>
+    <mergeCell ref="F9:O9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E2:E31">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="E27:E31 E2:E25">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1609,11 +1769,25 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{15E4B2BA-BAF6-4487-BD98-CF862E5270B1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="47" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A8" numberStoredAsText="1"/>
+    <ignoredError sqref="A9" numberStoredAsText="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -1627,7 +1801,18 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E2:E31</xm:sqref>
+          <xm:sqref>E27:E31 E2:E25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{15E4B2BA-BAF6-4487-BD98-CF862E5270B1}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E26</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1645,7 +1830,7 @@
     <sheetView workbookViewId="1"/>
     <sheetView workbookViewId="2"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1660,7 +1845,7 @@
     <sheetView workbookViewId="1"/>
     <sheetView workbookViewId="2"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
